--- a/Outputs/Transfer/Tables/medication_clusters_value1_value2_prescription_table_formatted.xlsx
+++ b/Outputs/Transfer/Tables/medication_clusters_value1_value2_prescription_table_formatted.xlsx
@@ -969,7 +969,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
